--- a/Stryktipset.xlsx
+++ b/Stryktipset.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -492,35 +491,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>West Ham - Manch.U</t>
+          <t>Wolverh. - Liverpool</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.75</v>
+        <v>7.85</v>
       </c>
       <c r="D2" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>2.02</v>
+        <v>1.41</v>
       </c>
       <c r="F2" t="n">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="H2" t="n">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333333333333355</v>
+        <v>-4.738853503184713</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3972602739725994</v>
+        <v>-5.000000000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.504950495049503</v>
+        <v>6.078014184397162</v>
       </c>
     </row>
     <row r="3">
@@ -529,35 +528,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chelsea - Leeds</t>
+          <t>Watford - Manch.C</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.53</v>
+        <v>14.7</v>
       </c>
       <c r="D3" t="n">
-        <v>4.65</v>
+        <v>7.65</v>
       </c>
       <c r="E3" t="n">
-        <v>6.05</v>
+        <v>1.19</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="H3" t="n">
-        <v>0.11</v>
+        <v>0.85</v>
       </c>
       <c r="I3" t="n">
-        <v>3.640522875816987</v>
+        <v>-0.802721088435375</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.505376344086018</v>
+        <v>-4.071895424836603</v>
       </c>
       <c r="K3" t="n">
-        <v>-5.528925619834711</v>
+        <v>0.9663865546218453</v>
       </c>
     </row>
     <row r="4">
@@ -566,35 +565,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Manch.C - Fulham</t>
+          <t>Newcastle - Burnley</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.13</v>
+        <v>2.33</v>
       </c>
       <c r="D4" t="n">
-        <v>9.6</v>
+        <v>3.4</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>3.2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9</v>
+        <v>0.47</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.21</v>
       </c>
       <c r="I4" t="n">
-        <v>1.50442477876106</v>
+        <v>4.081545064377679</v>
       </c>
       <c r="J4" t="n">
-        <v>-4.416666666666667</v>
+        <v>2.588235294117647</v>
       </c>
       <c r="K4" t="n">
-        <v>-1</v>
+        <v>-10.25</v>
       </c>
     </row>
     <row r="5">
@@ -603,35 +602,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brentford - Blackburn</t>
+          <t>Southampt - Brighton</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.85</v>
+        <v>2.56</v>
       </c>
       <c r="D5" t="n">
-        <v>3.65</v>
+        <v>3.13</v>
       </c>
       <c r="E5" t="n">
-        <v>4.2</v>
+        <v>3.06</v>
       </c>
       <c r="F5" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="G5" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.054054054054043</v>
+        <v>5.937500000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3972602739725994</v>
+        <v>-0.9488817891373791</v>
       </c>
       <c r="K5" t="n">
-        <v>-3.809523809523807</v>
+        <v>-8.679738562091504</v>
       </c>
     </row>
     <row r="6">
@@ -640,35 +639,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Huddersf. - Queens PR</t>
+          <t>Barnsley - Huddersf.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.43</v>
+        <v>2.77</v>
       </c>
       <c r="D6" t="n">
-        <v>3.33</v>
+        <v>3.11</v>
       </c>
       <c r="E6" t="n">
-        <v>2.93</v>
+        <v>2.76</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.15226337448559</v>
+        <v>-5.101083032490977</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.03003003003003157</v>
+        <v>-4.15434083601286</v>
       </c>
       <c r="K6" t="n">
-        <v>-4.129692832764503</v>
+        <v>4.768115942028977</v>
       </c>
     </row>
     <row r="7">
@@ -677,35 +676,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stoke - Middlesbr</t>
+          <t>Blackburn - Preston</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.57</v>
+        <v>2.28</v>
       </c>
       <c r="D7" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>3.28</v>
       </c>
       <c r="F7" t="n">
-        <v>0.43</v>
+        <v>0.63</v>
       </c>
       <c r="G7" t="n">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="H7" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="I7" t="n">
-        <v>4.089494163424123</v>
+        <v>19.14035087719298</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.7868852459016418</v>
+        <v>-12.3030303030303</v>
       </c>
       <c r="K7" t="n">
-        <v>-8.333333333333332</v>
+        <v>-11.48780487804878</v>
       </c>
     </row>
     <row r="8">
@@ -714,35 +713,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bristol C - Birmingh.</t>
+          <t>Blackpool - Luton</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.38</v>
+        <v>2.99</v>
       </c>
       <c r="D8" t="n">
-        <v>3.25</v>
+        <v>3.12</v>
       </c>
       <c r="E8" t="n">
-        <v>3.08</v>
+        <v>2.55</v>
       </c>
       <c r="F8" t="n">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="G8" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="H8" t="n">
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
       <c r="I8" t="n">
-        <v>14.98319327731092</v>
+        <v>-0.4448160535117041</v>
       </c>
       <c r="J8" t="n">
-        <v>-5.769230769230771</v>
+        <v>-2.051282051282049</v>
       </c>
       <c r="K8" t="n">
-        <v>-14.46753246753247</v>
+        <v>-2.215686274509809</v>
       </c>
     </row>
     <row r="9">
@@ -751,35 +750,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Millwall - Derby</t>
+          <t>Bristol C - Derby</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.03</v>
+        <v>2.71</v>
       </c>
       <c r="D9" t="n">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="E9" t="n">
-        <v>4.1</v>
+        <v>2.76</v>
       </c>
       <c r="F9" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="I9" t="n">
-        <v>4.738916256157633</v>
+        <v>9.099630996309966</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.446540880503144</v>
+        <v>-4.545741324921132</v>
       </c>
       <c r="K9" t="n">
-        <v>-8.390243902439027</v>
+        <v>-9.231884057971019</v>
       </c>
     </row>
     <row r="10">
@@ -788,35 +787,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Norwich - Sheff.W</t>
+          <t>Cardiff - Sheff.U</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.76</v>
+        <v>3.13</v>
       </c>
       <c r="D10" t="n">
-        <v>3.65</v>
+        <v>3.47</v>
       </c>
       <c r="E10" t="n">
-        <v>4.8</v>
+        <v>2.28</v>
       </c>
       <c r="F10" t="n">
-        <v>0.63</v>
+        <v>0.27</v>
       </c>
       <c r="G10" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="H10" t="n">
-        <v>0.15</v>
+        <v>0.48</v>
       </c>
       <c r="I10" t="n">
-        <v>6.181818181818177</v>
+        <v>-4.948881789137377</v>
       </c>
       <c r="J10" t="n">
-        <v>-5.397260273972601</v>
+        <v>-3.818443804034582</v>
       </c>
       <c r="K10" t="n">
-        <v>-5.833333333333335</v>
+        <v>4.140350877192978</v>
       </c>
     </row>
     <row r="11">
@@ -825,35 +824,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Swansea - Luton</t>
+          <t>Middlesbr - Swansea</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="D11" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="E11" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G11" t="n">
         <v>0.21</v>
       </c>
       <c r="H11" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>5.476190476190479</v>
+        <v>8.453608247422672</v>
       </c>
       <c r="J11" t="n">
-        <v>-5.666666666666667</v>
+        <v>-7.653295128939827</v>
       </c>
       <c r="K11" t="n">
-        <v>-4.867924528301887</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="12">
@@ -862,35 +861,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Watford - Cardiff</t>
+          <t>Millwall - Birmingh.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="D12" t="n">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="E12" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="F12" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="H12" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I12" t="n">
-        <v>11.38095238095238</v>
+        <v>2.606635071090047</v>
       </c>
       <c r="J12" t="n">
-        <v>-5.58103975535168</v>
+        <v>1.454258675078868</v>
       </c>
       <c r="K12" t="n">
-        <v>-11.02702702702702</v>
+        <v>-8.97402597402597</v>
       </c>
     </row>
     <row r="13">
@@ -899,35 +898,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Preston - Wycombe</t>
+          <t>Nottingh. - Peterbor.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="D13" t="n">
-        <v>3.75</v>
+        <v>3.59</v>
       </c>
       <c r="E13" t="n">
-        <v>5.05</v>
+        <v>4.5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="G13" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I13" t="n">
-        <v>13.52046783625731</v>
+        <v>19.35519125683061</v>
       </c>
       <c r="J13" t="n">
-        <v>-8.666666666666668</v>
+        <v>-10.85515320334262</v>
       </c>
       <c r="K13" t="n">
-        <v>-9.801980198019802</v>
+        <v>-13.22222222222222</v>
       </c>
     </row>
     <row r="14">
@@ -936,35 +935,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Coventry - Rotherham</t>
+          <t>Reading - Hull</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.25</v>
+        <v>2.54</v>
       </c>
       <c r="D14" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="E14" t="n">
-        <v>3.23</v>
+        <v>2.9</v>
       </c>
       <c r="F14" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="G14" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="H14" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.444444444444443</v>
+        <v>7.62992125984252</v>
       </c>
       <c r="J14" t="n">
-        <v>4.149253731343289</v>
+        <v>-4.76923076923077</v>
       </c>
       <c r="K14" t="n">
-        <v>-7.959752321981425</v>
+        <v>-7.482758620689656</v>
       </c>
     </row>
   </sheetData>
